--- a/素材整理/音樂紀錄表.xlsx
+++ b/素材整理/音樂紀錄表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="驚悚" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="歡樂" sheetId="4" r:id="rId4"/>
     <sheet name="和諧" sheetId="5" r:id="rId5"/>
     <sheet name="熱血" sheetId="6" r:id="rId6"/>
+    <sheet name="音樂營收抽成" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,20 +183,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-rat9352</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frosted flakes (of skin)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://rat9352.newgrounds.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electronic Symphony Remixed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,6 +364,61 @@
   <si>
     <t>1.養成
 2.敘事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello rat9352, I am Josh, We are the indie game team, named starbro, from Taiwan. Normally, we use our leisure time(after work) to make games. I found your audio creation,  frosted flakes (of skin) and warped, and we are interested in using them in our IO game( Neon-IMPACT ). &lt;em&gt;Can we use your audio creations on our game? &lt;/em&gt; It will be like the video link below.
+https://youtu.be/uTacDr4Y1L0
+NEON-IMPACT is an IO-liked game( players join the room to fight against each other). We have been working for about a half year.  By killing other players and gain the stars to level up and get new skills to survive as long as possible.
+Surely, we will label your name on the audios.
+Ideally, We expect that we can finish this game this year and launch on Kongregate. If we make some revenue, we will share it with you by 10 %. (but just notice you, we haven't experienced revenue from our indie game yet lol).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/GameAudio/comments/2zlbwg/what_of_a_game_developers_revenue_go_towards/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It varies drastically when it comes to revshare contracts. I've been offered anywhere from 3% to 33%, and have heard people ask for as much as 50%(!). I've found there are two trains of thought: How much does sound contribute to a game and how much work will I, the sound designer, be doing compared to how much work the developer is doing. Those who subscribe to the former tend to ask for more money because according to the old George Lucas quote "sound is 50% of the experience". I tend to lean towards the latter because I feel that is more fair. Somewhere in between is probably safe.
+There are multiple factors involved, however, some reach beyond how good you are at making noise:
+Your experience vs. the developers' experience. Will your pedigree sell more games? Are you bringing more to the table than simple audio files and implementation? Devs love to slap "with music/sound by the composer/sound designer of X" into their pitches and Kickstarters.
+The size of the team. Smaller teams give out larger %
+The complexity and effort that will go into a good sounding game, and how important sound is to the game. If the game I'm making is akin in mechanics and feel to Limbo or Journey, I'm going to be putting a TON of work in, likely hiring outsourcers, etc. and expect to be compensated thusly. If it's a low-action mobile game I can finish over a weekend I probably won't seek as much.
+edit: just saw you meant budget, not revenue. That completely depends on the title. "As much as it takes" or"as much as we can afford".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做音樂應該抽多少錢參考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+rat9352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic Symphony Remixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+rat9352</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PsyWoofers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frosted flakes (of skin)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -988,7 +1031,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -999,114 +1042,114 @@
     </row>
     <row r="3" spans="1:4" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33">
       <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5">
       <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1238,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1222,30 +1265,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1292,30 +1335,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1362,21 +1405,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="5:5" ht="22.5">
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1388,4 +1431,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="62.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="379.5">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="280.5">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>